--- a/res/危害因素关联.xlsx
+++ b/res/危害因素关联.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tools\oh\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA94E54C-0EEF-4274-BD03-05C90BD2D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193E190-20CD-48A3-BD3D-E3187EE7157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,24 @@
     <sheet name="职业禁忌症列表" sheetId="13" r:id="rId13"/>
     <sheet name="危害因素列表" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23529" uniqueCount="3680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23529" uniqueCount="3681">
   <si>
     <t>title_code</t>
   </si>
@@ -11074,6 +11086,10 @@
   </si>
   <si>
     <t>鼻窦X射线摄片</t>
+  </si>
+  <si>
+    <t>尿汞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -21573,9 +21589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="M287" sqref="M287"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="52.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -28457,6 +28478,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28464,7 +28486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -34527,8 +34549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B263"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:XFD263"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="J261" sqref="J261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -36647,7 +36669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -39046,6 +39070,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -54267,9 +54292,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H383"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="68.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -63399,13 +63431,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A772" workbookViewId="0">
-      <selection activeCell="J800" sqref="J800"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -63935,7 +63967,7 @@
         <v>1892</v>
       </c>
       <c r="G23" t="s">
-        <v>2686</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -83705,7 +83737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G323"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
